--- a/data/dados_raw_garanhuns.xlsx
+++ b/data/dados_raw_garanhuns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emano\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3662F927-0F3F-4AD5-B9A9-3381E37490B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7B3980-425F-4AE1-82C3-C6E14DF25AFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
     <t>Caetés</t>
   </si>
   <si>
-    <t>Caçado</t>
+    <t>Calçado</t>
   </si>
   <si>
     <t>Canhotinho</t>
@@ -137,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -152,6 +152,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -192,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -207,6 +212,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -431,22 +439,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -496,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -2028,6 +2036,150 @@
       <c r="E89" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>405</v>
+      </c>
+      <c r="C90" s="4">
+        <v>336</v>
+      </c>
+      <c r="D90" s="4">
+        <v>17</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>413</v>
+      </c>
+      <c r="C91" s="4">
+        <v>340</v>
+      </c>
+      <c r="D91" s="4">
+        <v>17</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>421</v>
+      </c>
+      <c r="C92" s="4">
+        <v>344</v>
+      </c>
+      <c r="D92" s="4">
+        <v>17</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>428</v>
+      </c>
+      <c r="C93" s="4">
+        <v>344</v>
+      </c>
+      <c r="D93" s="4">
+        <v>17</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>435</v>
+      </c>
+      <c r="C94" s="4">
+        <v>352</v>
+      </c>
+      <c r="D94" s="4">
+        <v>17</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>445</v>
+      </c>
+      <c r="C95" s="4">
+        <v>358</v>
+      </c>
+      <c r="D95" s="4">
+        <v>17</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>452</v>
+      </c>
+      <c r="C96" s="4">
+        <v>363</v>
+      </c>
+      <c r="D96" s="4">
+        <v>17</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>453</v>
+      </c>
+      <c r="C97" s="4">
+        <v>363</v>
+      </c>
+      <c r="D97" s="4">
+        <v>17</v>
+      </c>
+      <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2043,20 +2195,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2106,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -3638,6 +3790,150 @@
       <c r="E89" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>496</v>
+      </c>
+      <c r="C90" s="4">
+        <v>300</v>
+      </c>
+      <c r="D90" s="4">
+        <v>31</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>498</v>
+      </c>
+      <c r="C91" s="4">
+        <v>310</v>
+      </c>
+      <c r="D91" s="4">
+        <v>31</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>499</v>
+      </c>
+      <c r="C92" s="4">
+        <v>315</v>
+      </c>
+      <c r="D92" s="4">
+        <v>33</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>517</v>
+      </c>
+      <c r="C93" s="4">
+        <v>320</v>
+      </c>
+      <c r="D93" s="4">
+        <v>35</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>525</v>
+      </c>
+      <c r="C94" s="4">
+        <v>322</v>
+      </c>
+      <c r="D94" s="4">
+        <v>35</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>529</v>
+      </c>
+      <c r="C95" s="4">
+        <v>327</v>
+      </c>
+      <c r="D95" s="4">
+        <v>35</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>529</v>
+      </c>
+      <c r="C96" s="4">
+        <v>327</v>
+      </c>
+      <c r="D96" s="4">
+        <v>35</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>532</v>
+      </c>
+      <c r="C97" s="4">
+        <v>327</v>
+      </c>
+      <c r="D97" s="4">
+        <v>36</v>
+      </c>
+      <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3653,20 +3949,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3716,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -5248,6 +5544,150 @@
       <c r="E89" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>25</v>
+      </c>
+      <c r="C90" s="4">
+        <v>12</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>27</v>
+      </c>
+      <c r="C91" s="4">
+        <v>12</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>28</v>
+      </c>
+      <c r="C92" s="4">
+        <v>12</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>31</v>
+      </c>
+      <c r="C93" s="4">
+        <v>12</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>31</v>
+      </c>
+      <c r="C94" s="4">
+        <v>12</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="8">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="9">
+        <v>31</v>
+      </c>
+      <c r="C95" s="9">
+        <v>12</v>
+      </c>
+      <c r="D95" s="9">
+        <v>0</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>43</v>
+      </c>
+      <c r="C96" s="4">
+        <v>19</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>43</v>
+      </c>
+      <c r="C97" s="4">
+        <v>19</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
+      <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5263,20 +5703,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5326,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -6858,6 +7298,150 @@
       <c r="E89" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>72</v>
+      </c>
+      <c r="C90" s="4">
+        <v>62</v>
+      </c>
+      <c r="D90" s="4">
+        <v>3</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>73</v>
+      </c>
+      <c r="C91" s="4">
+        <v>64</v>
+      </c>
+      <c r="D91" s="4">
+        <v>3</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>75</v>
+      </c>
+      <c r="C92" s="4">
+        <v>64</v>
+      </c>
+      <c r="D92" s="4">
+        <v>3</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>75</v>
+      </c>
+      <c r="C93" s="4">
+        <v>64</v>
+      </c>
+      <c r="D93" s="4">
+        <v>3</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>76</v>
+      </c>
+      <c r="C94" s="4">
+        <v>65</v>
+      </c>
+      <c r="D94" s="4">
+        <v>3</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>76</v>
+      </c>
+      <c r="C95" s="4">
+        <v>65</v>
+      </c>
+      <c r="D95" s="4">
+        <v>3</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>86</v>
+      </c>
+      <c r="C96" s="4">
+        <v>73</v>
+      </c>
+      <c r="D96" s="4">
+        <v>3</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="8">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="9">
+        <v>86</v>
+      </c>
+      <c r="C97" s="9">
+        <v>73</v>
+      </c>
+      <c r="D97" s="9">
+        <v>3</v>
+      </c>
+      <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6873,20 +7457,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6936,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -8468,6 +9052,150 @@
       <c r="E89" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>70</v>
+      </c>
+      <c r="C90" s="4">
+        <v>52</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>81</v>
+      </c>
+      <c r="C91" s="4">
+        <v>59</v>
+      </c>
+      <c r="D91" s="4">
+        <v>3</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>87</v>
+      </c>
+      <c r="C92" s="4">
+        <v>62</v>
+      </c>
+      <c r="D92" s="4">
+        <v>3</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>89</v>
+      </c>
+      <c r="C93" s="4">
+        <v>65</v>
+      </c>
+      <c r="D93" s="4">
+        <v>3</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>90</v>
+      </c>
+      <c r="C94" s="4">
+        <v>67</v>
+      </c>
+      <c r="D94" s="4">
+        <v>3</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>90</v>
+      </c>
+      <c r="C95" s="4">
+        <v>71</v>
+      </c>
+      <c r="D95" s="4">
+        <v>3</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>90</v>
+      </c>
+      <c r="C96" s="4">
+        <v>73</v>
+      </c>
+      <c r="D96" s="4">
+        <v>3</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>90</v>
+      </c>
+      <c r="C97" s="4">
+        <v>73</v>
+      </c>
+      <c r="D97" s="4">
+        <v>3</v>
+      </c>
+      <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8483,20 +9211,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -8546,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -10078,6 +10806,150 @@
       <c r="E89" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>72</v>
+      </c>
+      <c r="C90" s="4">
+        <v>9</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>80</v>
+      </c>
+      <c r="C91" s="4">
+        <v>20</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>83</v>
+      </c>
+      <c r="C92" s="4">
+        <v>21</v>
+      </c>
+      <c r="D92" s="4">
+        <v>2</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>86</v>
+      </c>
+      <c r="C93" s="4">
+        <v>21</v>
+      </c>
+      <c r="D93" s="4">
+        <v>2</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>86</v>
+      </c>
+      <c r="C94" s="4">
+        <v>21</v>
+      </c>
+      <c r="D94" s="4">
+        <v>2</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>99</v>
+      </c>
+      <c r="C95" s="4">
+        <v>21</v>
+      </c>
+      <c r="D95" s="4">
+        <v>3</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>99</v>
+      </c>
+      <c r="C96" s="4">
+        <v>21</v>
+      </c>
+      <c r="D96" s="4">
+        <v>3</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>99</v>
+      </c>
+      <c r="C97" s="4">
+        <v>21</v>
+      </c>
+      <c r="D97" s="4">
+        <v>3</v>
+      </c>
+      <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10093,20 +10965,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -10156,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -11688,6 +12560,150 @@
       <c r="E89" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>21</v>
+      </c>
+      <c r="C90" s="4">
+        <v>5</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>21</v>
+      </c>
+      <c r="C91" s="4">
+        <v>5</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>21</v>
+      </c>
+      <c r="C92" s="4">
+        <v>5</v>
+      </c>
+      <c r="D92" s="4">
+        <v>2</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="8">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="9">
+        <v>21</v>
+      </c>
+      <c r="C93" s="9">
+        <v>5</v>
+      </c>
+      <c r="D93" s="9">
+        <v>2</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>21</v>
+      </c>
+      <c r="C94" s="4">
+        <v>5</v>
+      </c>
+      <c r="D94" s="4">
+        <v>2</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="8">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="9">
+        <v>21</v>
+      </c>
+      <c r="C95" s="9">
+        <v>5</v>
+      </c>
+      <c r="D95" s="9">
+        <v>2</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>21</v>
+      </c>
+      <c r="C96" s="4">
+        <v>9</v>
+      </c>
+      <c r="D96" s="4">
+        <v>2</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="8">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="9">
+        <v>21</v>
+      </c>
+      <c r="C97" s="9">
+        <v>9</v>
+      </c>
+      <c r="D97" s="9">
+        <v>2</v>
+      </c>
+      <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11703,20 +12719,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -11766,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -13298,6 +14314,150 @@
       <c r="E89" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>140</v>
+      </c>
+      <c r="C90" s="4">
+        <v>76</v>
+      </c>
+      <c r="D90" s="4">
+        <v>11</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>147</v>
+      </c>
+      <c r="C91" s="4">
+        <v>82</v>
+      </c>
+      <c r="D91" s="4">
+        <v>12</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>156</v>
+      </c>
+      <c r="C92" s="4">
+        <v>88</v>
+      </c>
+      <c r="D92" s="4">
+        <v>13</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>158</v>
+      </c>
+      <c r="C93" s="4">
+        <v>88</v>
+      </c>
+      <c r="D93" s="4">
+        <v>13</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>165</v>
+      </c>
+      <c r="C94" s="4">
+        <v>93</v>
+      </c>
+      <c r="D94" s="4">
+        <v>13</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>170</v>
+      </c>
+      <c r="C95" s="4">
+        <v>93</v>
+      </c>
+      <c r="D95" s="4">
+        <v>14</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>170</v>
+      </c>
+      <c r="C96" s="4">
+        <v>93</v>
+      </c>
+      <c r="D96" s="4">
+        <v>15</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>170</v>
+      </c>
+      <c r="C97" s="4">
+        <v>93</v>
+      </c>
+      <c r="D97" s="4">
+        <v>15</v>
+      </c>
+      <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13313,20 +14473,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -13376,7 +14536,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -14906,6 +16066,150 @@
         <v>2</v>
       </c>
       <c r="E89" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>13</v>
+      </c>
+      <c r="C90" s="4">
+        <v>9</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>13</v>
+      </c>
+      <c r="C91" s="4">
+        <v>9</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>13</v>
+      </c>
+      <c r="C92" s="4">
+        <v>9</v>
+      </c>
+      <c r="D92" s="4">
+        <v>2</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>13</v>
+      </c>
+      <c r="C93" s="4">
+        <v>9</v>
+      </c>
+      <c r="D93" s="4">
+        <v>2</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>13</v>
+      </c>
+      <c r="C94" s="4">
+        <v>9</v>
+      </c>
+      <c r="D94" s="4">
+        <v>2</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>13</v>
+      </c>
+      <c r="C95" s="4">
+        <v>9</v>
+      </c>
+      <c r="D95" s="4">
+        <v>2</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>13</v>
+      </c>
+      <c r="C96" s="4">
+        <v>9</v>
+      </c>
+      <c r="D96" s="4">
+        <v>2</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>13</v>
+      </c>
+      <c r="C97" s="4">
+        <v>9</v>
+      </c>
+      <c r="D97" s="4">
+        <v>2</v>
+      </c>
+      <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14923,20 +16227,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -14986,7 +16290,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -16516,6 +17820,150 @@
         <v>2</v>
       </c>
       <c r="E89" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>7</v>
+      </c>
+      <c r="C90" s="4">
+        <v>3</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>7</v>
+      </c>
+      <c r="C91" s="4">
+        <v>4</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>8</v>
+      </c>
+      <c r="C92" s="4">
+        <v>4</v>
+      </c>
+      <c r="D92" s="4">
+        <v>2</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>9</v>
+      </c>
+      <c r="C93" s="4">
+        <v>4</v>
+      </c>
+      <c r="D93" s="4">
+        <v>2</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>10</v>
+      </c>
+      <c r="C94" s="4">
+        <v>4</v>
+      </c>
+      <c r="D94" s="4">
+        <v>2</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>11</v>
+      </c>
+      <c r="C95" s="4">
+        <v>4</v>
+      </c>
+      <c r="D95" s="4">
+        <v>2</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="8">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="9">
+        <v>11</v>
+      </c>
+      <c r="C96" s="9">
+        <v>4</v>
+      </c>
+      <c r="D96" s="9">
+        <v>2</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>11</v>
+      </c>
+      <c r="C97" s="4">
+        <v>4</v>
+      </c>
+      <c r="D97" s="4">
+        <v>2</v>
+      </c>
+      <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16533,20 +17981,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -16596,7 +18044,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -18126,6 +19574,150 @@
         <v>4</v>
       </c>
       <c r="E89" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>28</v>
+      </c>
+      <c r="C90" s="4">
+        <v>17</v>
+      </c>
+      <c r="D90" s="4">
+        <v>4</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>28</v>
+      </c>
+      <c r="C91" s="4">
+        <v>17</v>
+      </c>
+      <c r="D91" s="4">
+        <v>4</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>31</v>
+      </c>
+      <c r="C92" s="4">
+        <v>18</v>
+      </c>
+      <c r="D92" s="4">
+        <v>4</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>32</v>
+      </c>
+      <c r="C93" s="4">
+        <v>18</v>
+      </c>
+      <c r="D93" s="4">
+        <v>4</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>32</v>
+      </c>
+      <c r="C94" s="4">
+        <v>19</v>
+      </c>
+      <c r="D94" s="4">
+        <v>5</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>35</v>
+      </c>
+      <c r="C95" s="4">
+        <v>19</v>
+      </c>
+      <c r="D95" s="4">
+        <v>6</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>38</v>
+      </c>
+      <c r="C96" s="4">
+        <v>19</v>
+      </c>
+      <c r="D96" s="4">
+        <v>6</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>38</v>
+      </c>
+      <c r="C97" s="4">
+        <v>25</v>
+      </c>
+      <c r="D97" s="4">
+        <v>6</v>
+      </c>
+      <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -18143,20 +19735,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -18206,7 +19798,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -19738,6 +21330,150 @@
       <c r="E89" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>44</v>
+      </c>
+      <c r="C90" s="4">
+        <v>34</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>44</v>
+      </c>
+      <c r="C91" s="4">
+        <v>34</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>44</v>
+      </c>
+      <c r="C92" s="4">
+        <v>34</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>44</v>
+      </c>
+      <c r="C93" s="4">
+        <v>35</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>46</v>
+      </c>
+      <c r="C94" s="4">
+        <v>35</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>46</v>
+      </c>
+      <c r="C95" s="4">
+        <v>35</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>46</v>
+      </c>
+      <c r="C96" s="4">
+        <v>36</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>46</v>
+      </c>
+      <c r="C97" s="4">
+        <v>36</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+      <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19753,20 +21489,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -19816,7 +21552,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -21346,6 +23082,150 @@
         <v>0</v>
       </c>
       <c r="E89" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>17</v>
+      </c>
+      <c r="C90" s="4">
+        <v>10</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>17</v>
+      </c>
+      <c r="C91" s="4">
+        <v>10</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>17</v>
+      </c>
+      <c r="C92" s="4">
+        <v>10</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>17</v>
+      </c>
+      <c r="C93" s="4">
+        <v>12</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>17</v>
+      </c>
+      <c r="C94" s="4">
+        <v>12</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>18</v>
+      </c>
+      <c r="C95" s="4">
+        <v>12</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>18</v>
+      </c>
+      <c r="C96" s="4">
+        <v>12</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>18</v>
+      </c>
+      <c r="C97" s="4">
+        <v>12</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
+      <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21363,20 +23243,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -21426,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -22956,6 +24836,150 @@
         <v>1</v>
       </c>
       <c r="E89" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>11</v>
+      </c>
+      <c r="C90" s="4">
+        <v>2</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>11</v>
+      </c>
+      <c r="C91" s="4">
+        <v>3</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>11</v>
+      </c>
+      <c r="C92" s="4">
+        <v>3</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>11</v>
+      </c>
+      <c r="C93" s="4">
+        <v>3</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>11</v>
+      </c>
+      <c r="C94" s="4">
+        <v>3</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>11</v>
+      </c>
+      <c r="C95" s="4">
+        <v>3</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>12</v>
+      </c>
+      <c r="C96" s="4">
+        <v>6</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>12</v>
+      </c>
+      <c r="C97" s="4">
+        <v>6</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+      <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22973,20 +24997,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -23036,7 +25060,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>1</v>
       </c>
     </row>
@@ -23122,7 +25146,7 @@
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="12">
         <v>1</v>
       </c>
       <c r="E9" s="10">
@@ -24566,6 +26590,150 @@
         <v>10</v>
       </c>
       <c r="E89" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>201</v>
+      </c>
+      <c r="C90" s="4">
+        <v>129</v>
+      </c>
+      <c r="D90" s="4">
+        <v>11</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>212</v>
+      </c>
+      <c r="C91" s="4">
+        <v>136</v>
+      </c>
+      <c r="D91" s="4">
+        <v>12</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>223</v>
+      </c>
+      <c r="C92" s="4">
+        <v>139</v>
+      </c>
+      <c r="D92" s="4">
+        <v>12</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>235</v>
+      </c>
+      <c r="C93" s="4">
+        <v>140</v>
+      </c>
+      <c r="D93" s="4">
+        <v>12</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>245</v>
+      </c>
+      <c r="C94" s="4">
+        <v>144</v>
+      </c>
+      <c r="D94" s="4">
+        <v>12</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>254</v>
+      </c>
+      <c r="C95" s="4">
+        <v>144</v>
+      </c>
+      <c r="D95" s="4">
+        <v>12</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>255</v>
+      </c>
+      <c r="C96" s="4">
+        <v>144</v>
+      </c>
+      <c r="D96" s="4">
+        <v>12</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>255</v>
+      </c>
+      <c r="C97" s="4">
+        <v>144</v>
+      </c>
+      <c r="D97" s="4">
+        <v>12</v>
+      </c>
+      <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -24583,20 +26751,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -24646,7 +26814,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -26176,6 +28344,150 @@
         <v>0</v>
       </c>
       <c r="E89" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>11</v>
+      </c>
+      <c r="C90" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>11</v>
+      </c>
+      <c r="C91" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>11</v>
+      </c>
+      <c r="C92" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>11</v>
+      </c>
+      <c r="C93" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>11</v>
+      </c>
+      <c r="C94" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>11</v>
+      </c>
+      <c r="C95" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>11</v>
+      </c>
+      <c r="C96" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>11</v>
+      </c>
+      <c r="C97" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
+      <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -26193,20 +28505,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -26256,7 +28568,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -27788,6 +30100,150 @@
       <c r="E89" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>97</v>
+      </c>
+      <c r="C90" s="4">
+        <v>48</v>
+      </c>
+      <c r="D90" s="4">
+        <v>5</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>102</v>
+      </c>
+      <c r="C91" s="4">
+        <v>52</v>
+      </c>
+      <c r="D91" s="4">
+        <v>5</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>109</v>
+      </c>
+      <c r="C92" s="4">
+        <v>52</v>
+      </c>
+      <c r="D92" s="4">
+        <v>5</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="8">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="9">
+        <v>109</v>
+      </c>
+      <c r="C93" s="9">
+        <v>52</v>
+      </c>
+      <c r="D93" s="9">
+        <v>5</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>132</v>
+      </c>
+      <c r="C94" s="4">
+        <v>52</v>
+      </c>
+      <c r="D94" s="4">
+        <v>5</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>142</v>
+      </c>
+      <c r="C95" s="4">
+        <v>52</v>
+      </c>
+      <c r="D95" s="4">
+        <v>5</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="8">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="9">
+        <v>142</v>
+      </c>
+      <c r="C96" s="9">
+        <v>52</v>
+      </c>
+      <c r="D96" s="9">
+        <v>5</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>147</v>
+      </c>
+      <c r="C97" s="4">
+        <v>54</v>
+      </c>
+      <c r="D97" s="4">
+        <v>5</v>
+      </c>
+      <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -27803,20 +30259,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -27866,7 +30322,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -29396,6 +31852,150 @@
         <v>1</v>
       </c>
       <c r="E89" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>23</v>
+      </c>
+      <c r="C90" s="4">
+        <v>20</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>24</v>
+      </c>
+      <c r="C91" s="4">
+        <v>21</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>25</v>
+      </c>
+      <c r="C92" s="4">
+        <v>21</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>26</v>
+      </c>
+      <c r="C93" s="4">
+        <v>21</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>26</v>
+      </c>
+      <c r="C94" s="4">
+        <v>21</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>26</v>
+      </c>
+      <c r="C95" s="4">
+        <v>21</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>26</v>
+      </c>
+      <c r="C96" s="4">
+        <v>21</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>26</v>
+      </c>
+      <c r="C97" s="4">
+        <v>21</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+      <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -29413,20 +32013,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -29476,7 +32076,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -31006,6 +33606,150 @@
         <v>8</v>
       </c>
       <c r="E89" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>224</v>
+      </c>
+      <c r="C90" s="4">
+        <v>135</v>
+      </c>
+      <c r="D90" s="4">
+        <v>8</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>233</v>
+      </c>
+      <c r="C91" s="4">
+        <v>147</v>
+      </c>
+      <c r="D91" s="4">
+        <v>8</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>237</v>
+      </c>
+      <c r="C92" s="4">
+        <v>147</v>
+      </c>
+      <c r="D92" s="4">
+        <v>8</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>248</v>
+      </c>
+      <c r="C93" s="4">
+        <v>147</v>
+      </c>
+      <c r="D93" s="4">
+        <v>9</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>248</v>
+      </c>
+      <c r="C94" s="4">
+        <v>172</v>
+      </c>
+      <c r="D94" s="4">
+        <v>9</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>253</v>
+      </c>
+      <c r="C95" s="4">
+        <v>176</v>
+      </c>
+      <c r="D95" s="4">
+        <v>9</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>253</v>
+      </c>
+      <c r="C96" s="4">
+        <v>176</v>
+      </c>
+      <c r="D96" s="4">
+        <v>9</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="8">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="9">
+        <v>253</v>
+      </c>
+      <c r="C97" s="9">
+        <v>176</v>
+      </c>
+      <c r="D97" s="9">
+        <v>9</v>
+      </c>
+      <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -31023,20 +33767,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -31086,7 +33830,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -32181,7 +34925,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65" s="10">
         <f t="shared" si="0"/>
@@ -32199,7 +34943,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" s="10">
         <f t="shared" si="0"/>
@@ -32616,6 +35360,150 @@
         <v>4</v>
       </c>
       <c r="E89" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="4">
+        <v>37</v>
+      </c>
+      <c r="C90" s="4">
+        <v>16</v>
+      </c>
+      <c r="D90" s="4">
+        <v>4</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="4">
+        <v>54</v>
+      </c>
+      <c r="C91" s="4">
+        <v>17</v>
+      </c>
+      <c r="D91" s="4">
+        <v>4</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="4">
+        <v>56</v>
+      </c>
+      <c r="C92" s="4">
+        <v>25</v>
+      </c>
+      <c r="D92" s="4">
+        <v>4</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="4">
+        <v>61</v>
+      </c>
+      <c r="C93" s="4">
+        <v>27</v>
+      </c>
+      <c r="D93" s="4">
+        <v>4</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>61</v>
+      </c>
+      <c r="C94" s="4">
+        <v>27</v>
+      </c>
+      <c r="D94" s="4">
+        <v>4</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="4">
+        <v>71</v>
+      </c>
+      <c r="C95" s="4">
+        <v>31</v>
+      </c>
+      <c r="D95" s="4">
+        <v>4</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="4">
+        <v>71</v>
+      </c>
+      <c r="C96" s="4">
+        <v>31</v>
+      </c>
+      <c r="D96" s="4">
+        <v>4</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="4">
+        <v>71</v>
+      </c>
+      <c r="C97" s="4">
+        <v>31</v>
+      </c>
+      <c r="D97" s="4">
+        <v>4</v>
+      </c>
+      <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -32633,20 +35521,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -32696,7 +35584,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E89" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -34226,6 +37114,150 @@
         <v>3</v>
       </c>
       <c r="E89" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="8">
+        <v>44017</v>
+      </c>
+      <c r="B90" s="9">
+        <v>77</v>
+      </c>
+      <c r="C90" s="9">
+        <v>30</v>
+      </c>
+      <c r="D90" s="9">
+        <v>3</v>
+      </c>
+      <c r="E90" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="8">
+        <v>44018</v>
+      </c>
+      <c r="B91" s="9">
+        <v>77</v>
+      </c>
+      <c r="C91" s="9">
+        <v>30</v>
+      </c>
+      <c r="D91" s="9">
+        <v>3</v>
+      </c>
+      <c r="E91" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="8">
+        <v>44019</v>
+      </c>
+      <c r="B92" s="9">
+        <v>77</v>
+      </c>
+      <c r="C92" s="9">
+        <v>30</v>
+      </c>
+      <c r="D92" s="9">
+        <v>3</v>
+      </c>
+      <c r="E92" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="8">
+        <v>44020</v>
+      </c>
+      <c r="B93" s="9">
+        <v>77</v>
+      </c>
+      <c r="C93" s="9">
+        <v>30</v>
+      </c>
+      <c r="D93" s="9">
+        <v>3</v>
+      </c>
+      <c r="E93" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B94" s="4">
+        <v>81</v>
+      </c>
+      <c r="C94" s="4">
+        <v>37</v>
+      </c>
+      <c r="D94" s="4">
+        <v>3</v>
+      </c>
+      <c r="E94" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="8">
+        <v>44022</v>
+      </c>
+      <c r="B95" s="9">
+        <v>81</v>
+      </c>
+      <c r="C95" s="9">
+        <v>37</v>
+      </c>
+      <c r="D95" s="9">
+        <v>3</v>
+      </c>
+      <c r="E95" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="8">
+        <v>44023</v>
+      </c>
+      <c r="B96" s="9">
+        <v>81</v>
+      </c>
+      <c r="C96" s="9">
+        <v>37</v>
+      </c>
+      <c r="D96" s="9">
+        <v>3</v>
+      </c>
+      <c r="E96" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="8">
+        <v>44024</v>
+      </c>
+      <c r="B97" s="9">
+        <v>81</v>
+      </c>
+      <c r="C97" s="9">
+        <v>37</v>
+      </c>
+      <c r="D97" s="9">
+        <v>3</v>
+      </c>
+      <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/data/dados_raw_garanhuns.xlsx
+++ b/data/dados_raw_garanhuns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emano\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7B3980-425F-4AE1-82C3-C6E14DF25AFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFD73A3-00A4-4517-BEB1-069F2412254D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ÁGUAS BELAS" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="24">
   <si>
     <t>Águas Belas</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Caetés</t>
   </si>
   <si>
-    <t>Calçado</t>
-  </si>
-  <si>
     <t>Canhotinho</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
   </si>
   <si>
     <t>Garanhuns</t>
-  </si>
-  <si>
-    <t>Iati</t>
   </si>
   <si>
     <t>Itaíba</t>
@@ -439,10 +433,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -504,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -2180,6 +2174,132 @@
       <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>458</v>
+      </c>
+      <c r="C98" s="4">
+        <v>367</v>
+      </c>
+      <c r="D98" s="4">
+        <v>17</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>469</v>
+      </c>
+      <c r="C99" s="4">
+        <v>375</v>
+      </c>
+      <c r="D99" s="4">
+        <v>17</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>479</v>
+      </c>
+      <c r="C100" s="4">
+        <v>387</v>
+      </c>
+      <c r="D100" s="4">
+        <v>18</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>495</v>
+      </c>
+      <c r="C101" s="4">
+        <v>399</v>
+      </c>
+      <c r="D101" s="4">
+        <v>18</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>501</v>
+      </c>
+      <c r="C102" s="4">
+        <v>403</v>
+      </c>
+      <c r="D102" s="4">
+        <v>18</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>502</v>
+      </c>
+      <c r="C103" s="4">
+        <v>404</v>
+      </c>
+      <c r="D103" s="4">
+        <v>18</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="4">
+        <v>506</v>
+      </c>
+      <c r="C104" s="4">
+        <v>405</v>
+      </c>
+      <c r="D104" s="4">
+        <v>19</v>
+      </c>
+      <c r="E104" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2195,15 +2315,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -2258,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -3934,6 +4056,132 @@
       <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>534</v>
+      </c>
+      <c r="C98" s="4">
+        <v>337</v>
+      </c>
+      <c r="D98" s="4">
+        <v>37</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>567</v>
+      </c>
+      <c r="C99" s="4">
+        <v>340</v>
+      </c>
+      <c r="D99" s="4">
+        <v>37</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>585</v>
+      </c>
+      <c r="C100" s="4">
+        <v>348</v>
+      </c>
+      <c r="D100" s="4">
+        <v>37</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>592</v>
+      </c>
+      <c r="C101" s="4">
+        <v>398</v>
+      </c>
+      <c r="D101" s="4">
+        <v>37</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>600</v>
+      </c>
+      <c r="C102" s="4">
+        <v>404</v>
+      </c>
+      <c r="D102" s="4">
+        <v>38</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>600</v>
+      </c>
+      <c r="C103" s="4">
+        <v>404</v>
+      </c>
+      <c r="D103" s="4">
+        <v>39</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="4">
+        <v>604</v>
+      </c>
+      <c r="C104" s="4">
+        <v>404</v>
+      </c>
+      <c r="D104" s="4">
+        <v>39</v>
+      </c>
+      <c r="E104" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3949,16 +4197,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -4012,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -5686,6 +5934,132 @@
         <v>0</v>
       </c>
       <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>44</v>
+      </c>
+      <c r="C98" s="4">
+        <v>21</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>44</v>
+      </c>
+      <c r="C99" s="4">
+        <v>23</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>46</v>
+      </c>
+      <c r="C100" s="4">
+        <v>23</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>46</v>
+      </c>
+      <c r="C101" s="4">
+        <v>23</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>48</v>
+      </c>
+      <c r="C102" s="4">
+        <v>23</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>48</v>
+      </c>
+      <c r="C103" s="4">
+        <v>23</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="8">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="9">
+        <v>48</v>
+      </c>
+      <c r="C104" s="9">
+        <v>23</v>
+      </c>
+      <c r="D104" s="9">
+        <v>0</v>
+      </c>
+      <c r="E104" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5703,15 +6077,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -5766,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -7427,19 +7803,145 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="8">
+      <c r="A97" s="3">
         <v>44024</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="4">
+        <v>91</v>
+      </c>
+      <c r="C97" s="4">
+        <v>76</v>
+      </c>
+      <c r="D97" s="4">
+        <v>3</v>
+      </c>
+      <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>92</v>
+      </c>
+      <c r="C98" s="4">
         <v>86</v>
       </c>
-      <c r="C97" s="9">
-        <v>73</v>
-      </c>
-      <c r="D97" s="9">
-        <v>3</v>
-      </c>
-      <c r="E97" s="10">
+      <c r="D98" s="4">
+        <v>3</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>92</v>
+      </c>
+      <c r="C99" s="4">
+        <v>86</v>
+      </c>
+      <c r="D99" s="4">
+        <v>3</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>97</v>
+      </c>
+      <c r="C100" s="4">
+        <v>86</v>
+      </c>
+      <c r="D100" s="4">
+        <v>3</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>97</v>
+      </c>
+      <c r="C101" s="4">
+        <v>86</v>
+      </c>
+      <c r="D101" s="4">
+        <v>3</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>101</v>
+      </c>
+      <c r="C102" s="4">
+        <v>88</v>
+      </c>
+      <c r="D102" s="4">
+        <v>3</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>103</v>
+      </c>
+      <c r="C103" s="4">
+        <v>93</v>
+      </c>
+      <c r="D103" s="4">
+        <v>3</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="4">
+        <v>103</v>
+      </c>
+      <c r="C104" s="4">
+        <v>93</v>
+      </c>
+      <c r="D104" s="4">
+        <v>3</v>
+      </c>
+      <c r="E104" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7457,15 +7959,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -7520,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -9194,6 +9698,132 @@
         <v>3</v>
       </c>
       <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>102</v>
+      </c>
+      <c r="C98" s="4">
+        <v>79</v>
+      </c>
+      <c r="D98" s="4">
+        <v>3</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>103</v>
+      </c>
+      <c r="C99" s="4">
+        <v>83</v>
+      </c>
+      <c r="D99" s="4">
+        <v>3</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>109</v>
+      </c>
+      <c r="C100" s="4">
+        <v>85</v>
+      </c>
+      <c r="D100" s="4">
+        <v>3</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>109</v>
+      </c>
+      <c r="C101" s="4">
+        <v>85</v>
+      </c>
+      <c r="D101" s="4">
+        <v>3</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>111</v>
+      </c>
+      <c r="C102" s="4">
+        <v>86</v>
+      </c>
+      <c r="D102" s="4">
+        <v>3</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>111</v>
+      </c>
+      <c r="C103" s="4">
+        <v>86</v>
+      </c>
+      <c r="D103" s="4">
+        <v>3</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="8">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="9">
+        <v>111</v>
+      </c>
+      <c r="C104" s="9">
+        <v>86</v>
+      </c>
+      <c r="D104" s="9">
+        <v>3</v>
+      </c>
+      <c r="E104" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9211,15 +9841,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -9274,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -10950,6 +11582,132 @@
       <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>115</v>
+      </c>
+      <c r="C98" s="4">
+        <v>43</v>
+      </c>
+      <c r="D98" s="4">
+        <v>3</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>124</v>
+      </c>
+      <c r="C99" s="4">
+        <v>44</v>
+      </c>
+      <c r="D99" s="4">
+        <v>3</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>128</v>
+      </c>
+      <c r="C100" s="4">
+        <v>48</v>
+      </c>
+      <c r="D100" s="4">
+        <v>3</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>135</v>
+      </c>
+      <c r="C101" s="4">
+        <v>49</v>
+      </c>
+      <c r="D101" s="4">
+        <v>3</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>142</v>
+      </c>
+      <c r="C102" s="4">
+        <v>50</v>
+      </c>
+      <c r="D102" s="4">
+        <v>4</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>144</v>
+      </c>
+      <c r="C103" s="4">
+        <v>50</v>
+      </c>
+      <c r="D103" s="4">
+        <v>4</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="4">
+        <v>146</v>
+      </c>
+      <c r="C104" s="4">
+        <v>50</v>
+      </c>
+      <c r="D104" s="4">
+        <v>4</v>
+      </c>
+      <c r="E104" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -10965,15 +11723,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -11028,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -12702,6 +13462,132 @@
         <v>2</v>
       </c>
       <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>21</v>
+      </c>
+      <c r="C98" s="4">
+        <v>9</v>
+      </c>
+      <c r="D98" s="4">
+        <v>2</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>22</v>
+      </c>
+      <c r="C99" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" s="4">
+        <v>3</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>22</v>
+      </c>
+      <c r="C100" s="4">
+        <v>12</v>
+      </c>
+      <c r="D100" s="4">
+        <v>3</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>22</v>
+      </c>
+      <c r="C101" s="4">
+        <v>12</v>
+      </c>
+      <c r="D101" s="4">
+        <v>3</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>23</v>
+      </c>
+      <c r="C102" s="4">
+        <v>12</v>
+      </c>
+      <c r="D102" s="4">
+        <v>4</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>23</v>
+      </c>
+      <c r="C103" s="4">
+        <v>12</v>
+      </c>
+      <c r="D103" s="4">
+        <v>4</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="8">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="9">
+        <v>23</v>
+      </c>
+      <c r="C104" s="9">
+        <v>12</v>
+      </c>
+      <c r="D104" s="9">
+        <v>4</v>
+      </c>
+      <c r="E104" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -12719,15 +13605,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -12782,7 +13670,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -14456,6 +15344,132 @@
         <v>15</v>
       </c>
       <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>175</v>
+      </c>
+      <c r="C98" s="4">
+        <v>96</v>
+      </c>
+      <c r="D98" s="4">
+        <v>15</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>185</v>
+      </c>
+      <c r="C99" s="4">
+        <v>97</v>
+      </c>
+      <c r="D99" s="4">
+        <v>15</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>186</v>
+      </c>
+      <c r="C100" s="4">
+        <v>102</v>
+      </c>
+      <c r="D100" s="4">
+        <v>16</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>191</v>
+      </c>
+      <c r="C101" s="4">
+        <v>102</v>
+      </c>
+      <c r="D101" s="4">
+        <v>16</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>192</v>
+      </c>
+      <c r="C102" s="4">
+        <v>107</v>
+      </c>
+      <c r="D102" s="4">
+        <v>17</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>194</v>
+      </c>
+      <c r="C103" s="4">
+        <v>109</v>
+      </c>
+      <c r="D103" s="4">
+        <v>17</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="4">
+        <v>194</v>
+      </c>
+      <c r="C104" s="4">
+        <v>109</v>
+      </c>
+      <c r="D104" s="4">
+        <v>17</v>
+      </c>
+      <c r="E104" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -14473,15 +15487,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -14536,7 +15552,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -16210,6 +17226,132 @@
         <v>2</v>
       </c>
       <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>13</v>
+      </c>
+      <c r="C98" s="4">
+        <v>9</v>
+      </c>
+      <c r="D98" s="4">
+        <v>2</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>13</v>
+      </c>
+      <c r="C99" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" s="4">
+        <v>2</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>13</v>
+      </c>
+      <c r="C100" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" s="4">
+        <v>2</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>13</v>
+      </c>
+      <c r="C101" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" s="4">
+        <v>2</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>13</v>
+      </c>
+      <c r="C102" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" s="4">
+        <v>2</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>13</v>
+      </c>
+      <c r="C103" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" s="4">
+        <v>2</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="4">
+        <v>13</v>
+      </c>
+      <c r="C104" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" s="4">
+        <v>2</v>
+      </c>
+      <c r="E104" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -16227,15 +17369,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -16290,7 +17434,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -17964,6 +19108,132 @@
         <v>2</v>
       </c>
       <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>11</v>
+      </c>
+      <c r="C98" s="4">
+        <v>6</v>
+      </c>
+      <c r="D98" s="4">
+        <v>2</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>11</v>
+      </c>
+      <c r="C99" s="4">
+        <v>6</v>
+      </c>
+      <c r="D99" s="4">
+        <v>3</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>13</v>
+      </c>
+      <c r="C100" s="4">
+        <v>6</v>
+      </c>
+      <c r="D100" s="4">
+        <v>3</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>16</v>
+      </c>
+      <c r="C101" s="4">
+        <v>6</v>
+      </c>
+      <c r="D101" s="4">
+        <v>3</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>17</v>
+      </c>
+      <c r="C102" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" s="4">
+        <v>4</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>17</v>
+      </c>
+      <c r="C103" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" s="4">
+        <v>4</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="8">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="9">
+        <v>17</v>
+      </c>
+      <c r="C104" s="9">
+        <v>11</v>
+      </c>
+      <c r="D104" s="9">
+        <v>4</v>
+      </c>
+      <c r="E104" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -17981,15 +19251,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -18044,7 +19316,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -19718,6 +20990,132 @@
         <v>6</v>
       </c>
       <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>41</v>
+      </c>
+      <c r="C98" s="4">
+        <v>26</v>
+      </c>
+      <c r="D98" s="4">
+        <v>6</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>41</v>
+      </c>
+      <c r="C99" s="4">
+        <v>26</v>
+      </c>
+      <c r="D99" s="4">
+        <v>6</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>41</v>
+      </c>
+      <c r="C100" s="4">
+        <v>29</v>
+      </c>
+      <c r="D100" s="4">
+        <v>6</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>42</v>
+      </c>
+      <c r="C101" s="4">
+        <v>29</v>
+      </c>
+      <c r="D101" s="4">
+        <v>6</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>42</v>
+      </c>
+      <c r="C102" s="4">
+        <v>29</v>
+      </c>
+      <c r="D102" s="4">
+        <v>6</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>45</v>
+      </c>
+      <c r="C103" s="4">
+        <v>29</v>
+      </c>
+      <c r="D103" s="4">
+        <v>6</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="4">
+        <v>45</v>
+      </c>
+      <c r="C104" s="4">
+        <v>29</v>
+      </c>
+      <c r="D104" s="4">
+        <v>6</v>
+      </c>
+      <c r="E104" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -19735,9 +21133,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -19798,7 +21198,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -21472,6 +22872,132 @@
         <v>1</v>
       </c>
       <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>46</v>
+      </c>
+      <c r="C98" s="4">
+        <v>36</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>46</v>
+      </c>
+      <c r="C99" s="4">
+        <v>38</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>46</v>
+      </c>
+      <c r="C100" s="4">
+        <v>38</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>46</v>
+      </c>
+      <c r="C101" s="4">
+        <v>38</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>46</v>
+      </c>
+      <c r="C102" s="4">
+        <v>39</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>46</v>
+      </c>
+      <c r="C103" s="4">
+        <v>39</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="4">
+        <v>46</v>
+      </c>
+      <c r="C104" s="4">
+        <v>39</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1</v>
+      </c>
+      <c r="E104" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21489,15 +23015,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -21552,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -23226,6 +24754,132 @@
         <v>0</v>
       </c>
       <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>18</v>
+      </c>
+      <c r="C98" s="4">
+        <v>12</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>19</v>
+      </c>
+      <c r="C99" s="4">
+        <v>13</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>20</v>
+      </c>
+      <c r="C100" s="4">
+        <v>14</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>20</v>
+      </c>
+      <c r="C101" s="4">
+        <v>14</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>20</v>
+      </c>
+      <c r="C102" s="4">
+        <v>14</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>20</v>
+      </c>
+      <c r="C103" s="4">
+        <v>14</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="4">
+        <v>20</v>
+      </c>
+      <c r="C104" s="4">
+        <v>14</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1</v>
+      </c>
+      <c r="E104" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -23243,15 +24897,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -23306,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -24982,6 +26638,132 @@
       <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>12</v>
+      </c>
+      <c r="C98" s="4">
+        <v>6</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>12</v>
+      </c>
+      <c r="C99" s="4">
+        <v>8</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>12</v>
+      </c>
+      <c r="C100" s="4">
+        <v>8</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>14</v>
+      </c>
+      <c r="C101" s="4">
+        <v>8</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>14</v>
+      </c>
+      <c r="C102" s="4">
+        <v>8</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>14</v>
+      </c>
+      <c r="C103" s="4">
+        <v>8</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="4">
+        <v>16</v>
+      </c>
+      <c r="C104" s="4">
+        <v>8</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1</v>
+      </c>
+      <c r="E104" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -24997,9 +26779,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -25060,7 +26844,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>1</v>
       </c>
     </row>
@@ -26736,6 +28520,132 @@
       <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>266</v>
+      </c>
+      <c r="C98" s="4">
+        <v>148</v>
+      </c>
+      <c r="D98" s="4">
+        <v>12</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>275</v>
+      </c>
+      <c r="C99" s="4">
+        <v>162</v>
+      </c>
+      <c r="D99" s="4">
+        <v>13</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>297</v>
+      </c>
+      <c r="C100" s="4">
+        <v>164</v>
+      </c>
+      <c r="D100" s="4">
+        <v>13</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>307</v>
+      </c>
+      <c r="C101" s="4">
+        <v>172</v>
+      </c>
+      <c r="D101" s="4">
+        <v>14</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>311</v>
+      </c>
+      <c r="C102" s="4">
+        <v>174</v>
+      </c>
+      <c r="D102" s="4">
+        <v>14</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>318</v>
+      </c>
+      <c r="C103" s="4">
+        <v>175</v>
+      </c>
+      <c r="D103" s="4">
+        <v>14</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="4">
+        <v>320</v>
+      </c>
+      <c r="C104" s="4">
+        <v>175</v>
+      </c>
+      <c r="D104" s="4">
+        <v>14</v>
+      </c>
+      <c r="E104" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -26751,9 +28661,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -26814,7 +28726,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -28488,6 +30400,132 @@
         <v>0</v>
       </c>
       <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>11</v>
+      </c>
+      <c r="C98" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" s="4">
+        <v>0</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>11</v>
+      </c>
+      <c r="C99" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>11</v>
+      </c>
+      <c r="C100" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>12</v>
+      </c>
+      <c r="C101" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>12</v>
+      </c>
+      <c r="C102" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>12</v>
+      </c>
+      <c r="C103" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="4">
+        <v>12</v>
+      </c>
+      <c r="C104" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+      <c r="E104" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -28505,9 +30543,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -28568,7 +30608,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -30244,6 +32284,132 @@
       <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>153</v>
+      </c>
+      <c r="C98" s="4">
+        <v>54</v>
+      </c>
+      <c r="D98" s="4">
+        <v>5</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>161</v>
+      </c>
+      <c r="C99" s="4">
+        <v>77</v>
+      </c>
+      <c r="D99" s="4">
+        <v>5</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>165</v>
+      </c>
+      <c r="C100" s="4">
+        <v>77</v>
+      </c>
+      <c r="D100" s="4">
+        <v>5</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>170</v>
+      </c>
+      <c r="C101" s="4">
+        <v>77</v>
+      </c>
+      <c r="D101" s="4">
+        <v>5</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>177</v>
+      </c>
+      <c r="C102" s="4">
+        <v>77</v>
+      </c>
+      <c r="D102" s="4">
+        <v>5</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>180</v>
+      </c>
+      <c r="C103" s="4">
+        <v>82</v>
+      </c>
+      <c r="D103" s="4">
+        <v>5</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="4">
+        <v>186</v>
+      </c>
+      <c r="C104" s="4">
+        <v>82</v>
+      </c>
+      <c r="D104" s="4">
+        <v>5</v>
+      </c>
+      <c r="E104" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -30259,16 +32425,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -30322,7 +32488,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -31996,6 +34162,132 @@
         <v>1</v>
       </c>
       <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>29</v>
+      </c>
+      <c r="C98" s="4">
+        <v>21</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>29</v>
+      </c>
+      <c r="C99" s="4">
+        <v>21</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>29</v>
+      </c>
+      <c r="C100" s="4">
+        <v>22</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>30</v>
+      </c>
+      <c r="C101" s="4">
+        <v>23</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>32</v>
+      </c>
+      <c r="C102" s="4">
+        <v>24</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>32</v>
+      </c>
+      <c r="C103" s="4">
+        <v>24</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="4">
+        <v>32</v>
+      </c>
+      <c r="C104" s="4">
+        <v>24</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1</v>
+      </c>
+      <c r="E104" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -32013,15 +34305,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -32076,7 +34370,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -33750,6 +36044,132 @@
         <v>9</v>
       </c>
       <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>258</v>
+      </c>
+      <c r="C98" s="4">
+        <v>176</v>
+      </c>
+      <c r="D98" s="4">
+        <v>10</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>264</v>
+      </c>
+      <c r="C99" s="4">
+        <v>186</v>
+      </c>
+      <c r="D99" s="4">
+        <v>10</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>272</v>
+      </c>
+      <c r="C100" s="4">
+        <v>186</v>
+      </c>
+      <c r="D100" s="4">
+        <v>10</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>277</v>
+      </c>
+      <c r="C101" s="4">
+        <v>204</v>
+      </c>
+      <c r="D101" s="4">
+        <v>10</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>279</v>
+      </c>
+      <c r="C102" s="4">
+        <v>204</v>
+      </c>
+      <c r="D102" s="4">
+        <v>10</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="8">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="9">
+        <v>279</v>
+      </c>
+      <c r="C103" s="9">
+        <v>204</v>
+      </c>
+      <c r="D103" s="9">
+        <v>10</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="8">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="9">
+        <v>279</v>
+      </c>
+      <c r="C104" s="9">
+        <v>204</v>
+      </c>
+      <c r="D104" s="9">
+        <v>10</v>
+      </c>
+      <c r="E104" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -33767,15 +36187,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -33830,7 +36252,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -35506,6 +37928,132 @@
       <c r="E97" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>78</v>
+      </c>
+      <c r="C98" s="4">
+        <v>35</v>
+      </c>
+      <c r="D98" s="4">
+        <v>4</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>83</v>
+      </c>
+      <c r="C99" s="4">
+        <v>46</v>
+      </c>
+      <c r="D99" s="4">
+        <v>4</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>92</v>
+      </c>
+      <c r="C100" s="4">
+        <v>46</v>
+      </c>
+      <c r="D100" s="4">
+        <v>4</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>93</v>
+      </c>
+      <c r="C101" s="4">
+        <v>48</v>
+      </c>
+      <c r="D101" s="4">
+        <v>4</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>113</v>
+      </c>
+      <c r="C102" s="4">
+        <v>48</v>
+      </c>
+      <c r="D102" s="4">
+        <v>4</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>114</v>
+      </c>
+      <c r="C103" s="4">
+        <v>48</v>
+      </c>
+      <c r="D103" s="4">
+        <v>4</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="4">
+        <v>115</v>
+      </c>
+      <c r="C104" s="4">
+        <v>50</v>
+      </c>
+      <c r="D104" s="4">
+        <v>5</v>
+      </c>
+      <c r="E104" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -35521,15 +38069,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -35584,7 +38134,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E97" si="0">B4-B3</f>
+        <f t="shared" ref="E4:E104" si="0">B4-B3</f>
         <v>0</v>
       </c>
     </row>
@@ -37155,34 +39705,34 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
+      <c r="A92" s="3">
         <v>44019</v>
       </c>
-      <c r="B92" s="9">
-        <v>77</v>
-      </c>
-      <c r="C92" s="9">
-        <v>30</v>
-      </c>
-      <c r="D92" s="9">
+      <c r="B92" s="4">
+        <v>79</v>
+      </c>
+      <c r="C92" s="4">
+        <v>37</v>
+      </c>
+      <c r="D92" s="4">
         <v>3</v>
       </c>
       <c r="E92" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="8">
+      <c r="A93" s="3">
         <v>44020</v>
       </c>
-      <c r="B93" s="9">
-        <v>77</v>
-      </c>
-      <c r="C93" s="9">
-        <v>30</v>
-      </c>
-      <c r="D93" s="9">
+      <c r="B93" s="4">
+        <v>79</v>
+      </c>
+      <c r="C93" s="4">
+        <v>37</v>
+      </c>
+      <c r="D93" s="4">
         <v>3</v>
       </c>
       <c r="E93" s="10">
@@ -37205,38 +39755,38 @@
       </c>
       <c r="E94" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="8">
+      <c r="A95" s="3">
         <v>44022</v>
       </c>
-      <c r="B95" s="9">
-        <v>81</v>
-      </c>
-      <c r="C95" s="9">
-        <v>37</v>
-      </c>
-      <c r="D95" s="9">
+      <c r="B95" s="4">
+        <v>82</v>
+      </c>
+      <c r="C95" s="4">
+        <v>52</v>
+      </c>
+      <c r="D95" s="4">
         <v>3</v>
       </c>
       <c r="E95" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="8">
+      <c r="A96" s="3">
         <v>44023</v>
       </c>
-      <c r="B96" s="9">
-        <v>81</v>
-      </c>
-      <c r="C96" s="9">
-        <v>37</v>
-      </c>
-      <c r="D96" s="9">
+      <c r="B96" s="4">
+        <v>82</v>
+      </c>
+      <c r="C96" s="4">
+        <v>52</v>
+      </c>
+      <c r="D96" s="4">
         <v>3</v>
       </c>
       <c r="E96" s="10">
@@ -37245,19 +39795,145 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="8">
+      <c r="A97" s="3">
         <v>44024</v>
       </c>
-      <c r="B97" s="9">
-        <v>81</v>
-      </c>
-      <c r="C97" s="9">
-        <v>37</v>
-      </c>
-      <c r="D97" s="9">
+      <c r="B97" s="4">
+        <v>82</v>
+      </c>
+      <c r="C97" s="4">
+        <v>52</v>
+      </c>
+      <c r="D97" s="4">
         <v>3</v>
       </c>
       <c r="E97" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B98" s="4">
+        <v>82</v>
+      </c>
+      <c r="C98" s="4">
+        <v>52</v>
+      </c>
+      <c r="D98" s="4">
+        <v>3</v>
+      </c>
+      <c r="E98" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B99" s="4">
+        <v>82</v>
+      </c>
+      <c r="C99" s="4">
+        <v>54</v>
+      </c>
+      <c r="D99" s="4">
+        <v>3</v>
+      </c>
+      <c r="E99" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B100" s="4">
+        <v>82</v>
+      </c>
+      <c r="C100" s="4">
+        <v>58</v>
+      </c>
+      <c r="D100" s="4">
+        <v>3</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B101" s="4">
+        <v>83</v>
+      </c>
+      <c r="C101" s="4">
+        <v>58</v>
+      </c>
+      <c r="D101" s="4">
+        <v>3</v>
+      </c>
+      <c r="E101" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B102" s="4">
+        <v>84</v>
+      </c>
+      <c r="C102" s="4">
+        <v>65</v>
+      </c>
+      <c r="D102" s="4">
+        <v>3</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B103" s="4">
+        <v>84</v>
+      </c>
+      <c r="C103" s="4">
+        <v>65</v>
+      </c>
+      <c r="D103" s="4">
+        <v>3</v>
+      </c>
+      <c r="E103" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="8">
+        <v>44031</v>
+      </c>
+      <c r="B104" s="9">
+        <v>84</v>
+      </c>
+      <c r="C104" s="9">
+        <v>65</v>
+      </c>
+      <c r="D104" s="9">
+        <v>3</v>
+      </c>
+      <c r="E104" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
